--- a/data/trans_orig/IP05A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP05A06-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7132D3EE-825D-44F4-9790-8F904ACD43AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBC55E01-DEC1-4E8E-BD5C-9C24A564C6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D387337B-4419-441D-9FD9-8804920D92D7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{11B9ABE5-1180-466A-BD24-0FA8606A2F04}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="441">
   <si>
     <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2012 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nada</t>
@@ -76,1282 +76,1291 @@
     <t>88,63%</t>
   </si>
   <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
     <t>70,49%</t>
   </si>
   <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2015 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
   </si>
   <si>
     <t>22,18%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>7,02%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>7,56%</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077E33CE-87BE-4C4D-ADD5-46B64108A8E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67662B05-A857-47FD-8690-964CFD581044}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2314,13 +2323,13 @@
         <v>147625</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>470</v>
@@ -2329,13 +2338,13 @@
         <v>315699</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,13 +2359,13 @@
         <v>47713</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -2365,13 +2374,13 @@
         <v>54935</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>155</v>
@@ -2380,13 +2389,13 @@
         <v>102648</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2410,13 @@
         <v>7328</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -2416,13 +2425,13 @@
         <v>3123</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -2431,13 +2440,13 @@
         <v>10452</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,7 +2502,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2505,13 +2514,13 @@
         <v>113613</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H16" s="7">
         <v>176</v>
@@ -2520,13 +2529,13 @@
         <v>113659</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>348</v>
@@ -2535,13 +2544,13 @@
         <v>227272</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2565,13 @@
         <v>45991</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -2571,13 +2580,13 @@
         <v>37773</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>134</v>
@@ -2586,13 +2595,13 @@
         <v>83764</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,10 +2616,10 @@
         <v>5052</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>112</v>
@@ -2640,10 +2649,10 @@
         <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,7 +2708,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2711,13 +2720,13 @@
         <v>130426</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>160</v>
@@ -2726,13 +2735,13 @@
         <v>122751</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>337</v>
@@ -2741,13 +2750,13 @@
         <v>253177</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2771,13 @@
         <v>69368</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H21" s="7">
         <v>96</v>
@@ -2777,13 +2786,13 @@
         <v>73574</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M21" s="7">
         <v>190</v>
@@ -2792,13 +2801,13 @@
         <v>142942</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2822,13 @@
         <v>7935</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -2828,13 +2837,13 @@
         <v>11777</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -2843,13 +2852,13 @@
         <v>19713</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2926,13 @@
         <v>541946</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>722</v>
@@ -2932,13 +2941,13 @@
         <v>500936</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>1491</v>
@@ -2947,13 +2956,13 @@
         <v>1042882</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2977,13 @@
         <v>185940</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>268</v>
@@ -2983,13 +2992,13 @@
         <v>185795</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>536</v>
@@ -2998,13 +3007,13 @@
         <v>371735</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3028,13 @@
         <v>22298</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -3034,13 +3043,13 @@
         <v>20134</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>62</v>
@@ -3049,13 +3058,13 @@
         <v>42433</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,7 +3120,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3132,7 +3141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDF3EFF-D332-4A39-A2B0-0540E856B375}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B1E0F6-D666-4DA1-921C-E2D1B4FF979C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3149,7 +3158,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3256,13 +3265,13 @@
         <v>24527</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -3271,10 +3280,10 @@
         <v>22527</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>37</v>
@@ -3286,13 +3295,13 @@
         <v>47054</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3316,13 @@
         <v>1047</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3328,7 +3337,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3337,13 +3346,13 @@
         <v>1047</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,7 +3373,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3379,7 +3388,7 @@
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3394,7 +3403,7 @@
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3471,13 @@
         <v>108859</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>144</v>
@@ -3477,13 +3486,13 @@
         <v>97906</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>290</v>
@@ -3492,13 +3501,13 @@
         <v>206764</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3522,13 @@
         <v>10139</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -3528,13 +3537,13 @@
         <v>12688</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -3543,13 +3552,13 @@
         <v>22827</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3573,13 @@
         <v>1422</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3579,13 +3588,13 @@
         <v>586</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3594,13 +3603,13 @@
         <v>2008</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3677,13 @@
         <v>187415</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H12" s="7">
         <v>278</v>
@@ -3683,13 +3692,13 @@
         <v>173195</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M12" s="7">
         <v>554</v>
@@ -3698,13 +3707,13 @@
         <v>360610</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3728,13 @@
         <v>32377</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -3734,13 +3743,13 @@
         <v>30597</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -3749,13 +3758,13 @@
         <v>62974</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3779,13 @@
         <v>4567</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3785,13 +3794,13 @@
         <v>2318</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -3800,13 +3809,13 @@
         <v>6885</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,7 +3871,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3874,13 +3883,13 @@
         <v>117661</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>177</v>
@@ -3889,13 +3898,13 @@
         <v>104258</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>354</v>
@@ -3904,13 +3913,13 @@
         <v>221919</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3934,13 @@
         <v>40062</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>69</v>
@@ -3940,13 +3949,13 @@
         <v>43884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>128</v>
@@ -3955,13 +3964,13 @@
         <v>83946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +3985,13 @@
         <v>8949</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>237</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -3991,13 +4000,13 @@
         <v>7316</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -4006,13 +4015,13 @@
         <v>16265</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>260</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,7 +4077,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4080,13 +4089,13 @@
         <v>127183</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>175</v>
@@ -4095,13 +4104,13 @@
         <v>131072</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>352</v>
@@ -4110,13 +4119,13 @@
         <v>258255</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4140,13 @@
         <v>64152</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H21" s="7">
         <v>84</v>
@@ -4146,13 +4155,13 @@
         <v>60706</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M21" s="7">
         <v>176</v>
@@ -4161,13 +4170,13 @@
         <v>124858</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,13 +4191,13 @@
         <v>12916</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -4197,13 +4206,13 @@
         <v>13769</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -4212,13 +4221,13 @@
         <v>26685</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4295,13 @@
         <v>565645</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H24" s="7">
         <v>798</v>
@@ -4301,13 +4310,13 @@
         <v>528958</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M24" s="7">
         <v>1603</v>
@@ -4316,13 +4325,13 @@
         <v>1094603</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4346,13 @@
         <v>147777</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H25" s="7">
         <v>221</v>
@@ -4352,13 +4361,13 @@
         <v>147875</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M25" s="7">
         <v>436</v>
@@ -4367,13 +4376,13 @@
         <v>295652</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4397,13 @@
         <v>27854</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H26" s="7">
         <v>36</v>
@@ -4403,13 +4412,13 @@
         <v>23989</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>76</v>
@@ -4418,13 +4427,13 @@
         <v>51843</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,7 +4489,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4501,7 +4510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587B2656-6DFF-4154-9ECB-251304743141}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458A36BC-6D2E-4FFD-9F68-FB2E84D3AAE0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4518,7 +4527,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4625,10 +4634,10 @@
         <v>12698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>37</v>
@@ -4640,10 +4649,10 @@
         <v>16787</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>37</v>
@@ -4655,10 +4664,10 @@
         <v>29485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>37</v>
@@ -4682,7 +4691,7 @@
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4712,7 +4721,7 @@
         <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,7 +4742,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4763,7 +4772,7 @@
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>91</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4840,13 @@
         <v>106734</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H8" s="7">
         <v>162</v>
@@ -4846,13 +4855,13 @@
         <v>99663</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M8" s="7">
         <v>303</v>
@@ -4861,13 +4870,13 @@
         <v>206396</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4891,13 @@
         <v>6077</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -4897,13 +4906,13 @@
         <v>4232</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -4912,13 +4921,13 @@
         <v>10309</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>332</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4942,13 @@
         <v>1785</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>139</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4954,7 +4963,7 @@
         <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4963,13 +4972,13 @@
         <v>1785</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5046,13 @@
         <v>226651</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H12" s="7">
         <v>249</v>
@@ -5052,13 +5061,13 @@
         <v>170221</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M12" s="7">
         <v>560</v>
@@ -5067,13 +5076,13 @@
         <v>396873</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5097,13 @@
         <v>14834</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5103,13 +5112,13 @@
         <v>16117</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -5118,13 +5127,13 @@
         <v>30951</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5148,13 @@
         <v>7941</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -5154,13 +5163,13 @@
         <v>6014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>358</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -5169,13 +5178,13 @@
         <v>13954</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,7 +5240,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5243,13 +5252,13 @@
         <v>136928</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H16" s="7">
         <v>178</v>
@@ -5258,13 +5267,13 @@
         <v>126685</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M16" s="7">
         <v>355</v>
@@ -5273,13 +5282,13 @@
         <v>263613</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,13 +5303,13 @@
         <v>27134</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -5309,13 +5318,13 @@
         <v>26946</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -5324,13 +5333,13 @@
         <v>54080</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,13 +5354,13 @@
         <v>8239</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>382</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -5360,13 +5369,13 @@
         <v>15104</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>272</v>
+        <v>388</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -5375,13 +5384,13 @@
         <v>23344</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,7 +5446,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5449,13 +5458,13 @@
         <v>121598</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="H20" s="7">
         <v>173</v>
@@ -5464,13 +5473,13 @@
         <v>123395</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
         <v>340</v>
@@ -5479,13 +5488,13 @@
         <v>244992</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>66</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,13 +5509,13 @@
         <v>32194</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H21" s="7">
         <v>44</v>
@@ -5515,13 +5524,13 @@
         <v>31619</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M21" s="7">
         <v>86</v>
@@ -5530,13 +5539,13 @@
         <v>63813</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,13 +5560,13 @@
         <v>20322</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -5569,10 +5578,10 @@
         <v>27</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -5581,13 +5590,13 @@
         <v>36080</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5664,13 @@
         <v>604609</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H24" s="7">
         <v>790</v>
@@ -5670,13 +5679,13 @@
         <v>536750</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M24" s="7">
         <v>1605</v>
@@ -5685,13 +5694,13 @@
         <v>1141359</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5715,13 @@
         <v>80240</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="H25" s="7">
         <v>110</v>
@@ -5721,13 +5730,13 @@
         <v>78914</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>351</v>
+        <v>428</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="M25" s="7">
         <v>214</v>
@@ -5736,13 +5745,13 @@
         <v>159154</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5766,13 @@
         <v>38287</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>430</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -5772,13 +5781,13 @@
         <v>36876</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M26" s="7">
         <v>96</v>
@@ -5787,13 +5796,13 @@
         <v>75163</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>436</v>
+        <v>284</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,7 +5858,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
